--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\公開フォルダ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayuk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F77515C-7045-4E9F-B798-7EBAE2A11EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A813E08F-D9A1-4DF6-9CC0-661B871587F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40185" yWindow="6270" windowWidth="21600" windowHeight="11175" xr2:uid="{9C2F0585-3DE2-437B-89A1-CC6C71644F6A}"/>
+    <workbookView xWindow="43335" yWindow="6840" windowWidth="16335" windowHeight="7455" xr2:uid="{9C2F0585-3DE2-437B-89A1-CC6C71644F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
   <si>
-    <t>dummy１</t>
+    <t>dummy２</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -403,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2805F48-0B7D-45A7-B189-B3A76CF5F312}">
   <dimension ref="B2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
